--- a/biology/Médecine/Sparadrap/Sparadrap.xlsx
+++ b/biology/Médecine/Sparadrap/Sparadrap.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un sparadrap, du latin spargere, « étendre », et du français « drap », « étoffe »[1], est une bande adhésive, présentée en rouleau, à découper et permettant de fixer des compresses, des pansements, des drains ou des cathéters sur la peau.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un sparadrap, du latin spargere, « étendre », et du français « drap », « étoffe », est une bande adhésive, présentée en rouleau, à découper et permettant de fixer des compresses, des pansements, des drains ou des cathéters sur la peau.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Initialement, le sparadrap, ou toile Gauthier, est une bande d'étoffe, de papier ou de peau d'animal recouverte d'une matière « emplastique », à base de gomme, de résine, de colophane, de caoutchouc, de cire… éventuellement additionnée de produits à but thérapeutique. En 1867, un livre destiné aux pharmaciens décrit différentes formules et machines utilisables pour sa fabrication[2].
-Victor Hugo le mentionne dans Les Misérables : « Les pansements étaient compliqués et difficiles, la fixation des appareils et des linges par le sparadrap n'ayant pas encore été imaginée à cette époque. »[3]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Initialement, le sparadrap, ou toile Gauthier, est une bande d'étoffe, de papier ou de peau d'animal recouverte d'une matière « emplastique », à base de gomme, de résine, de colophane, de caoutchouc, de cire… éventuellement additionnée de produits à but thérapeutique. En 1867, un livre destiné aux pharmaciens décrit différentes formules et machines utilisables pour sa fabrication.
+Victor Hugo le mentionne dans Les Misérables : « Les pansements étaient compliqués et difficiles, la fixation des appareils et des linges par le sparadrap n'ayant pas encore été imaginée à cette époque. »
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Présentation actuelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Au XXIe siècle, les formes proposées sont souvent de simples pansements vendus prédécoupés. Il peut être :
 transparent, blanc ou couleur chair,
@@ -580,7 +596,9 @@
           <t>Régionalisme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En Moselle, le sparadrap est couramment dénommé un gachilum[réf. souhaitée].
 Au Québec, le sparadrap prédécoupé est nommé de l'anglais plaster, alors qu'en rouleau il est nommé diachylon[réf. souhaitée]. 
